--- a/excel_files/Comparison - NC_014976 & NC_000964.xlsx
+++ b/excel_files/Comparison - NC_014976 & NC_000964.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="57">
   <si>
     <t>NC_014976</t>
   </si>
@@ -101,112 +101,91 @@
     <t>1.0*</t>
   </si>
   <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>0*</t>
+  </si>
+  <si>
+    <t>0.0*</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
     <t>6.0</t>
   </si>
   <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
     <t>13.0</t>
   </si>
   <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
+    <t>22.5</t>
   </si>
   <si>
     <t>19.0</t>
   </si>
   <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
     <t>24.0</t>
   </si>
   <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>0*</t>
-  </si>
-  <si>
-    <t>0.0*</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>18.5</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>22.5</t>
-  </si>
-  <si>
-    <t>23.5</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>25.5</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>31.5</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>33.5</t>
-  </si>
-  <si>
-    <t>8.0*</t>
+    <t>7.0*</t>
   </si>
 </sst>
 </file>
@@ -706,29 +685,29 @@
         <v>31</v>
       </c>
       <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
         <v>32</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>34</v>
-      </c>
       <c r="S4" t="s">
         <v>26</v>
       </c>
@@ -736,7 +715,7 @@
         <v>26</v>
       </c>
       <c r="U4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -747,7 +726,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -809,52 +788,52 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" t="s">
         <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" t="s">
-        <v>41</v>
       </c>
       <c r="S6" t="s">
         <v>26</v>
@@ -933,53 +912,53 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" t="s">
-        <v>44</v>
-      </c>
       <c r="S8" t="s">
         <v>26</v>
       </c>
@@ -987,7 +966,7 @@
         <v>26</v>
       </c>
       <c r="U8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -995,52 +974,52 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" t="s">
-        <v>34</v>
       </c>
       <c r="S9" t="s">
         <v>26</v>
@@ -1057,53 +1036,53 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" t="s">
         <v>47</v>
       </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R10" t="s">
-        <v>51</v>
-      </c>
       <c r="S10" t="s">
         <v>26</v>
       </c>
@@ -1111,7 +1090,7 @@
         <v>26</v>
       </c>
       <c r="U10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1119,53 +1098,53 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" t="s">
         <v>37</v>
       </c>
-      <c r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" t="s">
-        <v>53</v>
-      </c>
       <c r="S11" t="s">
         <v>26</v>
       </c>
@@ -1173,7 +1152,7 @@
         <v>26</v>
       </c>
       <c r="U11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1181,34 +1160,34 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -1226,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="S12" t="s">
         <v>26</v>
@@ -1235,7 +1214,7 @@
         <v>26</v>
       </c>
       <c r="U12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1243,34 +1222,34 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M13" t="s">
         <v>26</v>
@@ -1288,7 +1267,7 @@
         <v>26</v>
       </c>
       <c r="R13" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="S13" t="s">
         <v>26</v>
@@ -1297,7 +1276,7 @@
         <v>26</v>
       </c>
       <c r="U13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1305,52 +1284,52 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" t="s">
         <v>50</v>
-      </c>
-      <c r="I14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>26</v>
-      </c>
-      <c r="R14" t="s">
-        <v>56</v>
       </c>
       <c r="S14" t="s">
         <v>26</v>
@@ -1397,7 +1376,7 @@
         <v>26</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
         <v>26</v>
@@ -1462,7 +1441,7 @@
         <v>26</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O16" t="s">
         <v>26</v>
@@ -1527,7 +1506,7 @@
         <v>26</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P17" t="s">
         <v>26</v>
@@ -1592,7 +1571,7 @@
         <v>26</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q18" t="s">
         <v>26</v>
@@ -1657,7 +1636,7 @@
         <v>26</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R19" t="s">
         <v>26</v>
@@ -1677,34 +1656,34 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" t="s">
         <v>51</v>
       </c>
-      <c r="H20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" t="s">
-        <v>61</v>
-      </c>
       <c r="L20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M20" t="s">
         <v>26</v>
@@ -1722,7 +1701,7 @@
         <v>26</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="S20" t="s">
         <v>26</v>
@@ -1731,7 +1710,7 @@
         <v>26</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:21">
@@ -1787,7 +1766,7 @@
         <v>26</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T21" t="s">
         <v>26</v>
@@ -1852,7 +1831,7 @@
         <v>26</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U22" t="s">
         <v>26</v>
@@ -1872,22 +1851,22 @@
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J23" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L23" t="s">
         <v>42</v>
@@ -1908,7 +1887,7 @@
         <v>26</v>
       </c>
       <c r="R23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S23" t="s">
         <v>26</v>
@@ -1917,7 +1896,7 @@
         <v>26</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
